--- a/jpcore-r4/feature/swg5-add_terminologies/StructureDefinition-jp-observation-vitalsigns.xlsx
+++ b/jpcore-r4/feature/swg5-add_terminologies/StructureDefinition-jp-observation-vitalsigns.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T16:49:32+00:00</t>
+    <t>2022-08-09T12:50:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -619,9 +619,7 @@
   </si>
   <si>
     <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.
-【JP仕様】&lt;br/&gt;
-MEDISの看護実践用語標準マスター＜看護観察編＞の大分類１．バイタルサイン・基本情報、中分類１．バイタルサインの「焦点」を基にバリューセットを定義する&lt;br/&gt;
-具体的なコードについてはSWG6と連携して決定する必要がある（TBD）</t>
+【JP-Core仕様】MEDISの看護実践用語標準マスター＜看護観察編＞の大分類１．バイタルサイン・基本情報、中分類１．バイタルサインの「焦点」を基にバリューセットを定義する</t>
   </si>
   <si>
     <t>Used for filtering what observations are retrieved and displayed.</t>
@@ -651,9 +649,7 @@
   </si>
   <si>
     <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.
-【JP仕様】&lt;br/&gt;
-項目についてはMEDISの看護実践用語標準マスター＜看護観察編＞の大分類１．バイタルサイン・基本情報、中分類１．バイタルサインを対象とする&lt;br/&gt;
-具体的なコードについてはSWG6と連携して決定する必要がある（TBD）</t>
+【JP-Core仕様】項目についてはMEDISの看護実践用語標準マスター＜看護観察編＞の大分類１．バイタルサイン・基本情報、中分類１．バイタルサインを対象とする</t>
   </si>
   <si>
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
@@ -696,8 +692,7 @@
   </si>
   <si>
     <t>One would expect this element to be a cardinality of 1..1. The only circumstance in which the subject can be missing is when the observation is made by a device that does not know the patient. In this case, the observation SHALL be matched to a patient through some context/channel matching technique, and at this point, the observation should be updated.
-【JP仕様】&lt;br/&gt;
-患者</t>
+【JP-Core仕様】患者</t>
   </si>
   <si>
     <t>Observations have no value if you don't know who or what they're about.</t>
@@ -730,7 +725,7 @@
   </si>
   <si>
     <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](extension-observation-focuscode.html).
-通常、observationは対象（患者、または患者のグループ、場所、またはデバイス）について行われ、対象とobservationのために直接測定されるものとの区別は、observationコード自体（例：「血糖値」 ）で記述され、この要素を使用して個別に表す必要はない。検体（標本）への参照が必要な場合は、 `specimin`要素を使用する。リソースの代わりにコードが必要な場合は、人体部位には`bodysite`要素を使用するか、標準の拡張機能[focusCode]（extension-observation-focuscode.html）を使用する。</t>
+通常、observationは対象（患者、または患者のグループ、場所、またはデバイス）について行われ、対象とobservationのために直接測定されるものとの区別は、observationコード自体（例：「血糖値」 ）で記述され、この要素を使用して個別に表す必要はない。検体（標本）への参照が必要な場合は、 `specimen`要素を使用する。リソースの代わりにコードが必要な場合は、人体部位には`bodysite`要素を使用するか、標準の拡張機能[focusCode]（extension-observation-focuscode.html）を使用する。</t>
   </si>
   <si>
     <t>participation[typeCode=SBJ]</t>
@@ -755,8 +750,7 @@
   </si>
   <si>
     <t>This will typically be the encounter the event occurred within, but some events may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter (e.g. pre-admission laboratory tests).
-【JP仕様】&lt;br/&gt;
-診察</t>
+【JP-Core仕様】診察</t>
   </si>
   <si>
     <t>For some observations it may be important to know the link between an observation and a particular encounter.</t>
@@ -793,8 +787,7 @@
   </si>
   <si>
     <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.
-【JP仕様】&lt;br/&gt;
-effectiveDateTime：医療者が確認した日時&lt;br/&gt;
+【JP-Core仕様】effectiveDateTime：医療者が確認した日時
 effectivePeriod：医療者が確認した期間</t>
   </si>
   <si>
@@ -854,7 +847,7 @@
 そのobservationは真だと言える責任者</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
 参照は、実際のFHIRリソースへの参照である必要があり、解決可能（内容に到達可能）である必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。</t>
   </si>
   <si>
@@ -1341,12 +1334,11 @@
   </si>
   <si>
     <t>This observation is a group observation (e.g. a battery, a panel of tests, a set of vital sign measurements) that includes the target as a member of the group.
-このobserbationは、グループのメンバーとしてターゲットを含むグループobserbation（たとえば、一連検査セット、パネル検査、バイタルサイン測定値のセット）である。</t>
+このobservationは、グループのメンバーとしてターゲットを含むグループobservation（たとえば、一連検査セット、パネル検査、バイタルサイン測定値のセット）である。</t>
   </si>
   <si>
     <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](questionnaireresponse.html)  into a final score and represent the score as an Observation.
-【JP仕様】&lt;br/&gt;
-関連する参照リソースにJP_Observation_VitalSignsを追加</t>
+【JP-Core仕様】関連する参照リソースにJP_Observation_VitalSignsを追加</t>
   </si>
   <si>
     <t>Relationships established by OBX-4 usage</t>
@@ -1370,8 +1362,7 @@
   </si>
   <si>
     <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see [Notes](observation.html#obsgrouping) below.
-【JP仕様】&lt;br/&gt;
-導出元の参照リソースにJP_Observation_VitalSignsを追加</t>
+【JP-Core仕様】導出元の参照リソースにJP_Observation_VitalSignsを追加</t>
   </si>
   <si>
     <t>.targetObservation</t>
@@ -3971,7 +3962,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>91</v>
